--- a/ESG_S.xlsx
+++ b/ESG_S.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed9aa1d7d8492529/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{401522BC-5888-445B-BBAF-4B7035FE6E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{401522BC-5888-445B-BBAF-4B7035FE6E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6F69655-B3DC-4CBB-A0A5-B63203CD0375}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{955A864D-AD94-4A6D-9155-87F566EF6FAA}"/>
+    <workbookView xWindow="2304" yWindow="1164" windowWidth="11784" windowHeight="11796" xr2:uid="{955A864D-AD94-4A6D-9155-87F566EF6FAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -776,18 +776,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A356653-C635-42E6-9325-4C194BEE23F5}">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -807,28 +807,25 @@
         <v>5</v>
       </c>
       <c r="G1" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="H1" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I1" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J1" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="K1" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="L1" s="1">
-        <v>2016</v>
-      </c>
-      <c r="M1" s="1">
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -848,28 +845,25 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>3.4712350000000001</v>
+        <v>3.4200629999999999</v>
       </c>
       <c r="H2">
-        <v>3.4200629999999999</v>
+        <v>3.284605</v>
       </c>
       <c r="I2">
-        <v>3.284605</v>
+        <v>3.3871449999999999</v>
       </c>
       <c r="J2">
-        <v>3.3871449999999999</v>
+        <v>2.9541650000000002</v>
       </c>
       <c r="K2">
-        <v>2.9541650000000002</v>
+        <v>2.9639259999999998</v>
       </c>
       <c r="L2">
-        <v>2.9639259999999998</v>
-      </c>
-      <c r="M2">
         <v>2.6753520000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -892,7 +886,7 @@
         <v>4.3579210000000002</v>
       </c>
       <c r="H3">
-        <v>4.3579210000000002</v>
+        <v>2.1010010000000001</v>
       </c>
       <c r="I3">
         <v>2.1010010000000001</v>
@@ -906,11 +900,8 @@
       <c r="L3">
         <v>2.1010010000000001</v>
       </c>
-      <c r="M3">
-        <v>2.1010010000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -933,10 +924,10 @@
         <v>2.9021170000000001</v>
       </c>
       <c r="H4">
-        <v>2.9021170000000001</v>
+        <v>2.0770529999999998</v>
       </c>
       <c r="I4">
-        <v>2.0770529999999998</v>
+        <v>1.2898529999999999</v>
       </c>
       <c r="J4">
         <v>1.2898529999999999</v>
@@ -945,13 +936,10 @@
         <v>1.2898529999999999</v>
       </c>
       <c r="L4">
-        <v>1.2898529999999999</v>
-      </c>
-      <c r="M4">
         <v>0.990151</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -971,7 +959,7 @@
         <v>20</v>
       </c>
       <c r="G5">
-        <v>0.52166299999999999</v>
+        <v>1.348511</v>
       </c>
       <c r="H5">
         <v>1.348511</v>
@@ -983,16 +971,13 @@
         <v>1.348511</v>
       </c>
       <c r="K5">
-        <v>1.348511</v>
+        <v>1.239047</v>
       </c>
       <c r="L5">
         <v>1.239047</v>
       </c>
-      <c r="M5">
-        <v>1.239047</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1012,28 +997,25 @@
         <v>11</v>
       </c>
       <c r="G6">
-        <v>2.6625570000000001</v>
+        <v>2.6678160000000002</v>
       </c>
       <c r="H6">
-        <v>2.6678160000000002</v>
+        <v>2.7134160000000001</v>
       </c>
       <c r="I6">
-        <v>2.7134160000000001</v>
+        <v>2.714181</v>
       </c>
       <c r="J6">
+        <v>1.760426</v>
+      </c>
+      <c r="K6">
         <v>2.714181</v>
       </c>
-      <c r="K6">
-        <v>1.760426</v>
-      </c>
       <c r="L6">
-        <v>2.714181</v>
-      </c>
-      <c r="M6">
         <v>0.905111</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1059,22 +1041,19 @@
         <v>0.62057799999999996</v>
       </c>
       <c r="I7">
-        <v>0.62057799999999996</v>
+        <v>0.61710100000000001</v>
       </c>
       <c r="J7">
         <v>0.61710100000000001</v>
       </c>
       <c r="K7">
-        <v>0.61710100000000001</v>
+        <v>0.63360399999999995</v>
       </c>
       <c r="L7">
-        <v>0.63360399999999995</v>
-      </c>
-      <c r="M7">
         <v>0.59980900000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1094,28 +1073,25 @@
         <v>11</v>
       </c>
       <c r="G8">
-        <v>4.0904879999999997</v>
+        <v>3.9987710000000001</v>
       </c>
       <c r="H8">
-        <v>3.9987710000000001</v>
+        <v>3.811286</v>
       </c>
       <c r="I8">
-        <v>3.811286</v>
+        <v>2.674293</v>
       </c>
       <c r="J8">
-        <v>2.674293</v>
+        <v>1.9261649999999999</v>
       </c>
       <c r="K8">
-        <v>1.9261649999999999</v>
+        <v>1.3796060000000001</v>
       </c>
       <c r="L8">
-        <v>1.3796060000000001</v>
-      </c>
-      <c r="M8">
         <v>1.144692</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1150,13 +1126,10 @@
         <v>3.4298609999999998</v>
       </c>
       <c r="L9">
-        <v>3.4298609999999998</v>
-      </c>
-      <c r="M9">
         <v>2.6881689999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1188,16 +1161,13 @@
         <v>4.3579210000000002</v>
       </c>
       <c r="K10">
-        <v>4.3579210000000002</v>
+        <v>3.5798540000000001</v>
       </c>
       <c r="L10">
         <v>3.5798540000000001</v>
       </c>
-      <c r="M10">
-        <v>3.5798540000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1220,13 +1190,13 @@
         <v>1.5757369999999999</v>
       </c>
       <c r="H11">
-        <v>1.5757369999999999</v>
+        <v>1.419592</v>
       </c>
       <c r="I11">
         <v>1.419592</v>
       </c>
       <c r="J11">
-        <v>1.419592</v>
+        <v>0.19849900000000001</v>
       </c>
       <c r="K11">
         <v>0.19849900000000001</v>
@@ -1234,11 +1204,8 @@
       <c r="L11">
         <v>0.19849900000000001</v>
       </c>
-      <c r="M11">
-        <v>0.19849900000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1258,28 +1225,25 @@
         <v>38</v>
       </c>
       <c r="G12">
-        <v>1.8128709999999999</v>
+        <v>2.165594</v>
       </c>
       <c r="H12">
-        <v>2.165594</v>
+        <v>1.9446840000000001</v>
       </c>
       <c r="I12">
-        <v>1.9446840000000001</v>
+        <v>2.1485479999999999</v>
       </c>
       <c r="J12">
-        <v>2.1485479999999999</v>
+        <v>2.4213290000000001</v>
       </c>
       <c r="K12">
-        <v>2.4213290000000001</v>
+        <v>2.4045299999999998</v>
       </c>
       <c r="L12">
-        <v>2.4045299999999998</v>
-      </c>
-      <c r="M12">
         <v>1.8427439999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1305,7 +1269,7 @@
         <v>0.785242</v>
       </c>
       <c r="I13">
-        <v>0.785242</v>
+        <v>0.69476199999999999</v>
       </c>
       <c r="J13">
         <v>0.69476199999999999</v>
@@ -1316,11 +1280,8 @@
       <c r="L13">
         <v>0.69476199999999999</v>
       </c>
-      <c r="M13">
-        <v>0.69476199999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1340,28 +1301,25 @@
         <v>44</v>
       </c>
       <c r="G14">
-        <v>5.4222029999999997</v>
+        <v>5.3128219999999997</v>
       </c>
       <c r="H14">
-        <v>5.3128219999999997</v>
+        <v>7.3036130000000004</v>
       </c>
       <c r="I14">
-        <v>7.3036130000000004</v>
+        <v>5.2564390000000003</v>
       </c>
       <c r="J14">
-        <v>5.2564390000000003</v>
+        <v>5.3884119999999998</v>
       </c>
       <c r="K14">
-        <v>5.3884119999999998</v>
+        <v>5.3729870000000002</v>
       </c>
       <c r="L14">
-        <v>5.3729870000000002</v>
-      </c>
-      <c r="M14">
         <v>5.3761419999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -1381,28 +1339,25 @@
         <v>47</v>
       </c>
       <c r="G15">
-        <v>2.8513809999999999</v>
+        <v>3.0830190000000002</v>
       </c>
       <c r="H15">
-        <v>3.0830190000000002</v>
+        <v>2.655036</v>
       </c>
       <c r="I15">
-        <v>2.655036</v>
+        <v>2.7464390000000001</v>
       </c>
       <c r="J15">
-        <v>2.7464390000000001</v>
+        <v>2.8086410000000002</v>
       </c>
       <c r="K15">
-        <v>2.8086410000000002</v>
+        <v>3.053032</v>
       </c>
       <c r="L15">
-        <v>3.053032</v>
-      </c>
-      <c r="M15">
         <v>3.646506</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -1422,16 +1377,16 @@
         <v>50</v>
       </c>
       <c r="G16">
-        <v>1.9539679999999999</v>
+        <v>1.120277</v>
       </c>
       <c r="H16">
-        <v>1.120277</v>
+        <v>0.88299000000000005</v>
       </c>
       <c r="I16">
         <v>0.88299000000000005</v>
       </c>
       <c r="J16">
-        <v>0.88299000000000005</v>
+        <v>0.77593400000000001</v>
       </c>
       <c r="K16">
         <v>0.77593400000000001</v>
@@ -1439,11 +1394,8 @@
       <c r="L16">
         <v>0.77593400000000001</v>
       </c>
-      <c r="M16">
-        <v>0.77593400000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -1463,7 +1415,7 @@
         <v>53</v>
       </c>
       <c r="G17">
-        <v>1.661788</v>
+        <v>1.688142</v>
       </c>
       <c r="H17">
         <v>1.688142</v>
@@ -1478,13 +1430,10 @@
         <v>1.688142</v>
       </c>
       <c r="L17">
-        <v>1.688142</v>
-      </c>
-      <c r="M17">
         <v>1.4437489999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -1504,28 +1453,25 @@
         <v>56</v>
       </c>
       <c r="G18">
-        <v>1.6779999999999999</v>
+        <v>1.635635</v>
       </c>
       <c r="H18">
-        <v>1.635635</v>
+        <v>1.64367</v>
       </c>
       <c r="I18">
-        <v>1.64367</v>
+        <v>1.6346670000000001</v>
       </c>
       <c r="J18">
-        <v>1.6346670000000001</v>
+        <v>1.428363</v>
       </c>
       <c r="K18">
-        <v>1.428363</v>
+        <v>1.1405650000000001</v>
       </c>
       <c r="L18">
-        <v>1.1405650000000001</v>
-      </c>
-      <c r="M18">
         <v>1.1017490000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -1545,28 +1491,25 @@
         <v>25</v>
       </c>
       <c r="G19">
+        <v>0.91260300000000005</v>
+      </c>
+      <c r="H19">
         <v>0.883266</v>
       </c>
-      <c r="H19">
-        <v>0.91260300000000005</v>
-      </c>
       <c r="I19">
-        <v>0.883266</v>
+        <v>0.88724199999999998</v>
       </c>
       <c r="J19">
-        <v>0.88724199999999998</v>
+        <v>0.885185</v>
       </c>
       <c r="K19">
-        <v>0.885185</v>
+        <v>0.91559500000000005</v>
       </c>
       <c r="L19">
-        <v>0.91559500000000005</v>
-      </c>
-      <c r="M19">
         <v>0.88945399999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -1586,16 +1529,16 @@
         <v>61</v>
       </c>
       <c r="G20">
-        <v>2.4606210000000002</v>
+        <v>2.416077</v>
       </c>
       <c r="H20">
-        <v>2.416077</v>
+        <v>2.4093810000000002</v>
       </c>
       <c r="I20">
-        <v>2.4093810000000002</v>
+        <v>1.2994699999999999</v>
       </c>
       <c r="J20">
-        <v>1.2994699999999999</v>
+        <v>0.92876400000000003</v>
       </c>
       <c r="K20">
         <v>0.92876400000000003</v>
@@ -1603,11 +1546,8 @@
       <c r="L20">
         <v>0.92876400000000003</v>
       </c>
-      <c r="M20">
-        <v>0.92876400000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -1627,13 +1567,13 @@
         <v>64</v>
       </c>
       <c r="G21">
-        <v>3.246623</v>
+        <v>2.890072</v>
       </c>
       <c r="H21">
-        <v>2.890072</v>
+        <v>2.826962</v>
       </c>
       <c r="I21">
-        <v>2.826962</v>
+        <v>2.4306329999999998</v>
       </c>
       <c r="J21">
         <v>2.4306329999999998</v>
@@ -1641,11 +1581,8 @@
       <c r="K21">
         <v>2.4306329999999998</v>
       </c>
-      <c r="L21">
-        <v>2.4306329999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -1674,19 +1611,16 @@
         <v>1.6882710000000001</v>
       </c>
       <c r="J22">
-        <v>1.6882710000000001</v>
+        <v>1.1858059999999999</v>
       </c>
       <c r="K22">
-        <v>1.1858059999999999</v>
+        <v>0.11011</v>
       </c>
       <c r="L22">
         <v>0.11011</v>
       </c>
-      <c r="M22">
-        <v>0.11011</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -1706,28 +1640,25 @@
         <v>69</v>
       </c>
       <c r="G23">
-        <v>3.892436</v>
+        <v>2.931441</v>
       </c>
       <c r="H23">
-        <v>2.931441</v>
+        <v>2.802187</v>
       </c>
       <c r="I23">
-        <v>2.802187</v>
+        <v>2.76288</v>
       </c>
       <c r="J23">
-        <v>2.76288</v>
+        <v>2.3754849999999998</v>
       </c>
       <c r="K23">
-        <v>2.3754849999999998</v>
+        <v>2.3612259999999998</v>
       </c>
       <c r="L23">
-        <v>2.3612259999999998</v>
-      </c>
-      <c r="M23">
         <v>2.3472029999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -1747,28 +1678,25 @@
         <v>53</v>
       </c>
       <c r="G24">
-        <v>2.3441149999999999</v>
+        <v>2.3408820000000001</v>
       </c>
       <c r="H24">
-        <v>2.3408820000000001</v>
+        <v>2.3463699999999998</v>
       </c>
       <c r="I24">
-        <v>2.3463699999999998</v>
+        <v>2.3528479999999998</v>
       </c>
       <c r="J24">
-        <v>2.3528479999999998</v>
+        <v>2.3423970000000001</v>
       </c>
       <c r="K24">
-        <v>2.3423970000000001</v>
+        <v>1.845998</v>
       </c>
       <c r="L24">
-        <v>1.845998</v>
-      </c>
-      <c r="M24">
         <v>1.8178840000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -1788,28 +1716,25 @@
         <v>53</v>
       </c>
       <c r="G25">
-        <v>1.654185</v>
+        <v>1.6662980000000001</v>
       </c>
       <c r="H25">
-        <v>1.6662980000000001</v>
+        <v>1.6636789999999999</v>
       </c>
       <c r="I25">
-        <v>1.6636789999999999</v>
+        <v>1.719997</v>
       </c>
       <c r="J25">
-        <v>1.719997</v>
+        <v>1.6982219999999999</v>
       </c>
       <c r="K25">
-        <v>1.6982219999999999</v>
+        <v>1.7993939999999999</v>
       </c>
       <c r="L25">
-        <v>1.7993939999999999</v>
-      </c>
-      <c r="M25">
         <v>1.740159</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -1846,11 +1771,8 @@
       <c r="L26">
         <v>3.4298609999999998</v>
       </c>
-      <c r="M26">
-        <v>3.4298609999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -1870,28 +1792,25 @@
         <v>78</v>
       </c>
       <c r="G27">
-        <v>2.546303</v>
+        <v>2.5428799999999998</v>
       </c>
       <c r="H27">
-        <v>2.5428799999999998</v>
+        <v>2.5412590000000002</v>
       </c>
       <c r="I27">
-        <v>2.5412590000000002</v>
+        <v>1.7589030000000001</v>
       </c>
       <c r="J27">
-        <v>1.7589030000000001</v>
+        <v>1.711349</v>
       </c>
       <c r="K27">
-        <v>1.711349</v>
+        <v>1.6785680000000001</v>
       </c>
       <c r="L27">
-        <v>1.6785680000000001</v>
-      </c>
-      <c r="M27">
         <v>1.644776</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -1911,28 +1830,25 @@
         <v>78</v>
       </c>
       <c r="G28">
-        <v>2.3281369999999999</v>
+        <v>2.6604580000000002</v>
       </c>
       <c r="H28">
-        <v>2.6604580000000002</v>
+        <v>2.6328999999999998</v>
       </c>
       <c r="I28">
-        <v>2.6328999999999998</v>
+        <v>2.6167199999999999</v>
       </c>
       <c r="J28">
-        <v>2.6167199999999999</v>
+        <v>2.5983049999999999</v>
       </c>
       <c r="K28">
-        <v>2.5983049999999999</v>
+        <v>1.770391</v>
       </c>
       <c r="L28">
-        <v>1.770391</v>
-      </c>
-      <c r="M28">
         <v>1.746475</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -1955,25 +1871,22 @@
         <v>3.652037</v>
       </c>
       <c r="H29">
-        <v>3.652037</v>
+        <v>2.059132</v>
       </c>
       <c r="I29">
         <v>2.059132</v>
       </c>
       <c r="J29">
-        <v>2.059132</v>
+        <v>1.274397</v>
       </c>
       <c r="K29">
         <v>1.274397</v>
       </c>
       <c r="L29">
-        <v>1.274397</v>
-      </c>
-      <c r="M29">
         <v>0.990151</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -1993,16 +1906,16 @@
         <v>17</v>
       </c>
       <c r="G30">
+        <v>2.0784919999999998</v>
+      </c>
+      <c r="H30">
         <v>2.059132</v>
       </c>
-      <c r="H30">
-        <v>2.0784919999999998</v>
-      </c>
       <c r="I30">
-        <v>2.059132</v>
+        <v>1.7279610000000001</v>
       </c>
       <c r="J30">
-        <v>1.7279610000000001</v>
+        <v>0.990151</v>
       </c>
       <c r="K30">
         <v>0.990151</v>
@@ -2010,11 +1923,8 @@
       <c r="L30">
         <v>0.990151</v>
       </c>
-      <c r="M30">
-        <v>0.990151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>85</v>
       </c>
@@ -2037,25 +1947,22 @@
         <v>1.7279610000000001</v>
       </c>
       <c r="H31">
-        <v>1.7279610000000001</v>
+        <v>0.990151</v>
       </c>
       <c r="I31">
-        <v>0.990151</v>
+        <v>1.0197970000000001</v>
       </c>
       <c r="J31">
-        <v>1.0197970000000001</v>
+        <v>1.274397</v>
       </c>
       <c r="K31">
         <v>1.274397</v>
       </c>
       <c r="L31">
-        <v>1.274397</v>
-      </c>
-      <c r="M31">
         <v>1.0678650000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>87</v>
       </c>
@@ -2075,28 +1982,25 @@
         <v>64</v>
       </c>
       <c r="G32">
-        <v>5.232132</v>
+        <v>4.9623210000000002</v>
       </c>
       <c r="H32">
-        <v>4.9623210000000002</v>
+        <v>3.0432589999999999</v>
       </c>
       <c r="I32">
-        <v>3.0432589999999999</v>
+        <v>2.9877639999999999</v>
       </c>
       <c r="J32">
-        <v>2.9877639999999999</v>
+        <v>2.977614</v>
       </c>
       <c r="K32">
-        <v>2.977614</v>
+        <v>2.9267270000000001</v>
       </c>
       <c r="L32">
-        <v>2.9267270000000001</v>
-      </c>
-      <c r="M32">
         <v>2.8584809999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -2119,10 +2023,10 @@
         <v>3.671252</v>
       </c>
       <c r="H33">
-        <v>3.671252</v>
+        <v>2.917281</v>
       </c>
       <c r="I33">
-        <v>2.917281</v>
+        <v>1.338919</v>
       </c>
       <c r="J33">
         <v>1.338919</v>
@@ -2131,13 +2035,10 @@
         <v>1.338919</v>
       </c>
       <c r="L33">
-        <v>1.338919</v>
-      </c>
-      <c r="M33">
         <v>0.88299000000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>91</v>
       </c>
@@ -2169,16 +2070,13 @@
         <v>3</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="L34">
         <v>1.25</v>
       </c>
-      <c r="M34">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>94</v>
       </c>
@@ -2198,25 +2096,22 @@
         <v>97</v>
       </c>
       <c r="G35">
-        <v>2.688402</v>
+        <v>2.8053110000000001</v>
       </c>
       <c r="H35">
-        <v>2.8053110000000001</v>
+        <v>2.7691620000000001</v>
       </c>
       <c r="I35">
-        <v>2.7691620000000001</v>
+        <v>2.3913359999999999</v>
       </c>
       <c r="J35">
-        <v>2.3913359999999999</v>
+        <v>1.8025679999999999</v>
       </c>
       <c r="K35">
-        <v>1.8025679999999999</v>
-      </c>
-      <c r="L35">
         <v>0.75124999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>98</v>
       </c>
@@ -2236,16 +2131,16 @@
         <v>100</v>
       </c>
       <c r="G36">
-        <v>3.3882669999999999</v>
+        <v>3.6921810000000002</v>
       </c>
       <c r="H36">
-        <v>3.6921810000000002</v>
+        <v>3.7566109999999999</v>
       </c>
       <c r="I36">
-        <v>3.7566109999999999</v>
+        <v>1.919411</v>
       </c>
       <c r="J36">
-        <v>1.919411</v>
+        <v>1.068003</v>
       </c>
       <c r="K36">
         <v>1.068003</v>
@@ -2253,11 +2148,8 @@
       <c r="L36">
         <v>1.068003</v>
       </c>
-      <c r="M36">
-        <v>1.068003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -2277,28 +2169,25 @@
         <v>103</v>
       </c>
       <c r="G37">
-        <v>4.5499200000000002</v>
+        <v>4.6456970000000002</v>
       </c>
       <c r="H37">
-        <v>4.6456970000000002</v>
+        <v>2.7314820000000002</v>
       </c>
       <c r="I37">
-        <v>2.7314820000000002</v>
+        <v>2.8605520000000002</v>
       </c>
       <c r="J37">
-        <v>2.8605520000000002</v>
+        <v>2.9255840000000002</v>
       </c>
       <c r="K37">
-        <v>2.9255840000000002</v>
+        <v>2.135335</v>
       </c>
       <c r="L37">
         <v>2.135335</v>
       </c>
-      <c r="M37">
-        <v>2.135335</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>104</v>
       </c>
@@ -2333,13 +2222,10 @@
         <v>2.474618</v>
       </c>
       <c r="L38">
-        <v>2.474618</v>
-      </c>
-      <c r="M38">
         <v>1.6961850000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>107</v>
       </c>
@@ -2359,28 +2245,25 @@
         <v>35</v>
       </c>
       <c r="G39">
-        <v>1.891373</v>
+        <v>1.6882710000000001</v>
       </c>
       <c r="H39">
-        <v>1.6882710000000001</v>
+        <v>1.5757369999999999</v>
       </c>
       <c r="I39">
         <v>1.5757369999999999</v>
       </c>
       <c r="J39">
-        <v>1.5757369999999999</v>
+        <v>1.419592</v>
       </c>
       <c r="K39">
-        <v>1.419592</v>
+        <v>0.47565499999999999</v>
       </c>
       <c r="L39">
-        <v>0.47565499999999999</v>
-      </c>
-      <c r="M39">
         <v>0.11011</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>109</v>
       </c>
@@ -2403,13 +2286,10 @@
         <v>2.0217909999999999</v>
       </c>
       <c r="H40">
-        <v>2.0217909999999999</v>
-      </c>
-      <c r="I40">
         <v>1.1823399999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>111</v>
       </c>
@@ -2429,28 +2309,25 @@
         <v>17</v>
       </c>
       <c r="G41">
-        <v>3.8357670000000001</v>
+        <v>3.714407</v>
       </c>
       <c r="H41">
-        <v>3.714407</v>
+        <v>3.6703220000000001</v>
       </c>
       <c r="I41">
-        <v>3.6703220000000001</v>
+        <v>3.2310270000000001</v>
       </c>
       <c r="J41">
-        <v>3.2310270000000001</v>
+        <v>3.190766</v>
       </c>
       <c r="K41">
-        <v>3.190766</v>
+        <v>3.1433520000000001</v>
       </c>
       <c r="L41">
-        <v>3.1433520000000001</v>
-      </c>
-      <c r="M41">
         <v>2.070376</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>113</v>
       </c>
@@ -2487,11 +2364,8 @@
       <c r="L42">
         <v>4.3579210000000002</v>
       </c>
-      <c r="M42">
-        <v>4.3579210000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>115</v>
       </c>
@@ -2511,28 +2385,25 @@
         <v>78</v>
       </c>
       <c r="G43">
-        <v>2.9760409999999999</v>
+        <v>3.171141</v>
       </c>
       <c r="H43">
-        <v>3.171141</v>
+        <v>2.2892600000000001</v>
       </c>
       <c r="I43">
-        <v>2.2892600000000001</v>
+        <v>1.899138</v>
       </c>
       <c r="J43">
-        <v>1.899138</v>
+        <v>1.4709890000000001</v>
       </c>
       <c r="K43">
-        <v>1.4709890000000001</v>
+        <v>1.6395820000000001</v>
       </c>
       <c r="L43">
         <v>1.6395820000000001</v>
       </c>
-      <c r="M43">
-        <v>1.6395820000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>117</v>
       </c>
@@ -2552,28 +2423,25 @@
         <v>11</v>
       </c>
       <c r="G44">
-        <v>2.8468070000000001</v>
+        <v>1.5432440000000001</v>
       </c>
       <c r="H44">
-        <v>1.5432440000000001</v>
+        <v>1.5810010000000001</v>
       </c>
       <c r="I44">
-        <v>1.5810010000000001</v>
+        <v>1.5770029999999999</v>
       </c>
       <c r="J44">
-        <v>1.5770029999999999</v>
+        <v>1.189584</v>
       </c>
       <c r="K44">
-        <v>1.189584</v>
+        <v>1.101777</v>
       </c>
       <c r="L44">
         <v>1.101777</v>
       </c>
-      <c r="M44">
-        <v>1.101777</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>119</v>
       </c>
@@ -2599,22 +2467,19 @@
         <v>1.709897</v>
       </c>
       <c r="I45">
-        <v>1.709897</v>
+        <v>1.796978</v>
       </c>
       <c r="J45">
-        <v>1.796978</v>
+        <v>1.41987</v>
       </c>
       <c r="K45">
-        <v>1.41987</v>
+        <v>1.338919</v>
       </c>
       <c r="L45">
         <v>1.338919</v>
       </c>
-      <c r="M45">
-        <v>1.338919</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>121</v>
       </c>
@@ -2634,7 +2499,7 @@
         <v>25</v>
       </c>
       <c r="G46">
-        <v>0.38622000000000001</v>
+        <v>0.31151800000000002</v>
       </c>
       <c r="H46">
         <v>0.31151800000000002</v>
@@ -2651,11 +2516,8 @@
       <c r="L46">
         <v>0.31151800000000002</v>
       </c>
-      <c r="M46">
-        <v>0.31151800000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>123</v>
       </c>
@@ -2687,16 +2549,13 @@
         <v>3.2927849999999999</v>
       </c>
       <c r="K47">
-        <v>3.2927849999999999</v>
+        <v>2.5282819999999999</v>
       </c>
       <c r="L47">
         <v>2.5282819999999999</v>
       </c>
-      <c r="M47">
-        <v>2.5282819999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>125</v>
       </c>
@@ -2716,28 +2575,25 @@
         <v>47</v>
       </c>
       <c r="G48">
-        <v>5.316446</v>
+        <v>5.0085100000000002</v>
       </c>
       <c r="H48">
-        <v>5.0085100000000002</v>
+        <v>2.4073319999999998</v>
       </c>
       <c r="I48">
-        <v>2.4073319999999998</v>
+        <v>2.4003389999999998</v>
       </c>
       <c r="J48">
-        <v>2.4003389999999998</v>
+        <v>2.554713</v>
       </c>
       <c r="K48">
-        <v>2.554713</v>
+        <v>2.7826149999999998</v>
       </c>
       <c r="L48">
-        <v>2.7826149999999998</v>
-      </c>
-      <c r="M48">
         <v>3.0983520000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>127</v>
       </c>
@@ -2757,28 +2613,25 @@
         <v>129</v>
       </c>
       <c r="G49">
-        <v>2.8500909999999999</v>
+        <v>2.7986140000000002</v>
       </c>
       <c r="H49">
-        <v>2.7986140000000002</v>
+        <v>2.7640229999999999</v>
       </c>
       <c r="I49">
-        <v>2.7640229999999999</v>
+        <v>2.7949440000000001</v>
       </c>
       <c r="J49">
-        <v>2.7949440000000001</v>
+        <v>2.7696689999999999</v>
       </c>
       <c r="K49">
-        <v>2.7696689999999999</v>
+        <v>2.0690369999999998</v>
       </c>
       <c r="L49">
-        <v>2.0690369999999998</v>
-      </c>
-      <c r="M49">
         <v>1.842166</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>130</v>
       </c>
@@ -2798,10 +2651,10 @@
         <v>132</v>
       </c>
       <c r="G50">
-        <v>1.9544859999999999</v>
+        <v>3.210909</v>
       </c>
       <c r="H50">
-        <v>3.210909</v>
+        <v>1.2745770000000001</v>
       </c>
       <c r="I50">
         <v>1.2745770000000001</v>
@@ -2810,12 +2663,9 @@
         <v>1.2745770000000001</v>
       </c>
       <c r="K50">
-        <v>1.2745770000000001</v>
+        <v>0.58045599999999997</v>
       </c>
       <c r="L50">
-        <v>0.58045599999999997</v>
-      </c>
-      <c r="M50">
         <v>0.58045599999999997</v>
       </c>
     </row>
